--- a/src/test/resources/Sample.xlsx
+++ b/src/test/resources/Sample.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nsh/Documents/Repo2024/cucumber-project-b3/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9E7E2-CCAE-E44C-879E-1CB11B145B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0688BD-8CC9-1845-9B1D-5365690EF821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45760" yWindow="3520" windowWidth="28040" windowHeight="17440" xr2:uid="{01FD6417-A741-A248-9573-742E2CDE1D7F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>instructors</t>
   </si>
@@ -63,6 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -411,41 +412,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125"/>
+    <col min="2" max="2" customWidth="true" width="24.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
     </row>
